--- a/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1554,7 +1554,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Se emplea para registrar presión sistólica y diastólica en un solo recurso.</t>
+    <t>Componentes de la observación</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1587,7 +1587,7 @@
     <t>Código del componente</t>
   </si>
   <si>
-    <t>Código del componente. En este caso, se trata de la presión arterial.</t>
+    <t>Código del componente.</t>
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
@@ -1603,7 +1603,7 @@
     <t>Valor del componente</t>
   </si>
   <si>
-    <t>Valor del componente. En este caso, se trata de la presión arterial.</t>
+    <t>Valor del componente.</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>

--- a/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -579,9 +579,6 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered|preliminary|final|amended|corrected|cancelled|entered-in-error|unknown</t>
-  </si>
-  <si>
     <t>Estado de la observación</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>registered</t>
   </si>
   <si>
     <t>required</t>
@@ -3624,13 +3624,13 @@
         <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>84</v>
@@ -3640,7 +3640,7 @@
         <v>84</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>84</v>

--- a/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-ObservationSignosVitales.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
